--- a/new-invoice-frontend/main/src/assets/files/importclassname.xlsx
+++ b/new-invoice-frontend/main/src/assets/files/importclassname.xlsx
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,14 +554,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B2" s="3">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
